--- a/Tiempos de ejecución.xlsx
+++ b/Tiempos de ejecución.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andres\Maestria\Tecnicas de Adquisicion y Procesamiento Datos\Proyecto2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D740BDE5-D697-4FFB-A4EF-946CB3AD5788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986E2246-0CEB-4BC2-A4DD-D5A0670DFCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{83EB74D2-3462-4CC9-A844-885FAD9570B0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{83EB74D2-3462-4CC9-A844-885FAD9570B0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tiempos de Ejecución" sheetId="1" r:id="rId1"/>
+    <sheet name="Tiempos de Ejecución por Bloque" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="20">
   <si>
     <t>Nivel de Optimización</t>
   </si>
@@ -86,6 +87,15 @@
   </si>
   <si>
     <t>2,71,7831</t>
+  </si>
+  <si>
+    <t>Tiempo Promedio [s]</t>
+  </si>
+  <si>
+    <t>Encoder por bloque</t>
+  </si>
+  <si>
+    <t>Decoder por bloque</t>
   </si>
 </sst>
 </file>
@@ -533,7 +543,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$3</c:f>
+              <c:f>'Tiempos de Ejecución'!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -617,7 +627,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$4:$F$8</c:f>
+              <c:f>'Tiempos de Ejecución'!$F$4:$F$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -640,7 +650,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$4:$G$8</c:f>
+              <c:f>'Tiempos de Ejecución'!$G$4:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -673,7 +683,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$3</c:f>
+              <c:f>'Tiempos de Ejecución'!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -757,7 +767,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$4:$F$8</c:f>
+              <c:f>'Tiempos de Ejecución'!$F$4:$F$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -780,7 +790,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$4:$H$8</c:f>
+              <c:f>'Tiempos de Ejecución'!$H$4:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -813,7 +823,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$3</c:f>
+              <c:f>'Tiempos de Ejecución'!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -897,7 +907,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$4:$F$8</c:f>
+              <c:f>'Tiempos de Ejecución'!$F$4:$F$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -920,7 +930,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$4:$I$8</c:f>
+              <c:f>'Tiempos de Ejecución'!$I$4:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1403,7 +1413,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$5</c:f>
+              <c:f>'Tiempos de Ejecución'!$L$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1435,7 +1445,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$15</c:f>
+              <c:f>'Tiempos de Ejecución'!$L$6:$L$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1484,7 +1494,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$5</c:f>
+              <c:f>'Tiempos de Ejecución'!$N$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1516,7 +1526,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$6:$M$15</c:f>
+              <c:f>'Tiempos de Ejecución'!$M$6:$M$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1565,7 +1575,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$5</c:f>
+              <c:f>'Tiempos de Ejecución'!$N$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1597,7 +1607,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$6:$N$15</c:f>
+              <c:f>'Tiempos de Ejecución'!$N$6:$N$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1646,7 +1656,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$5</c:f>
+              <c:f>'Tiempos de Ejecución'!$O$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1678,7 +1688,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$6:$O$15</c:f>
+              <c:f>'Tiempos de Ejecución'!$O$6:$O$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1727,7 +1737,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$5</c:f>
+              <c:f>'Tiempos de Ejecución'!$P$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1759,7 +1769,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$6:$P$15</c:f>
+              <c:f>'Tiempos de Ejecución'!$P$6:$P$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1826,7 +1836,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$K$5</c15:sqref>
+                          <c15:sqref>'Tiempos de Ejecución'!$K$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1917,7 +1927,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$K$6:$K$15</c15:sqref>
+                          <c15:sqref>'Tiempos de Ejecución'!$K$6:$K$15</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2370,7 +2380,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$35</c:f>
+              <c:f>'Tiempos de Ejecución'!$G$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2452,7 +2462,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$36:$F$40</c:f>
+              <c:f>'Tiempos de Ejecución'!$F$36:$F$40</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2475,7 +2485,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$36:$G$40</c:f>
+              <c:f>'Tiempos de Ejecución'!$G$36:$G$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2508,7 +2518,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$35</c:f>
+              <c:f>'Tiempos de Ejecución'!$H$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2590,7 +2600,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$36:$F$40</c:f>
+              <c:f>'Tiempos de Ejecución'!$F$36:$F$40</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2613,7 +2623,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$36:$H$40</c:f>
+              <c:f>'Tiempos de Ejecución'!$H$36:$H$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2646,7 +2656,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$35</c:f>
+              <c:f>'Tiempos de Ejecución'!$I$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2728,7 +2738,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$36:$F$40</c:f>
+              <c:f>'Tiempos de Ejecución'!$F$36:$F$40</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2751,7 +2761,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$36:$I$40</c:f>
+              <c:f>'Tiempos de Ejecución'!$I$36:$I$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2776,6 +2786,1718 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-BF24-41B2-91B2-B33C97C30DDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:axId val="1594687088"/>
+        <c:axId val="1594685424"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1594687088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Nivel de optimización del compilador</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1594685424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1594685424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Tiempo [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.4509140595367651E-2"/>
+              <c:y val="0.37378966005469494"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1594687088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tiempos Encoder por bloque[s]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tiempos de Ejecución por Bloque'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo Ejecución mayor [s]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tiempos de Ejecución por Bloque'!$F$4:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-O0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-O1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-O2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-O3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-Os</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tiempos de Ejecución por Bloque'!$G$4:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.7899999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.73E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8200000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7699999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8000000000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A1C2-49F5-AC21-E509E8AA06C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tiempos de Ejecución por Bloque'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo Ejecucion menor [s]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tiempos de Ejecución por Bloque'!$F$4:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-O0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-O1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-O2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-O3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-Os</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tiempos de Ejecución por Bloque'!$H$4:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.7000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2999999999999998E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A1C2-49F5-AC21-E509E8AA06C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tiempos de Ejecución por Bloque'!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo Promedio [s]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tiempos de Ejecución por Bloque'!$F$4:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-O0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-O1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-O2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-O3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-Os</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tiempos de Ejecución por Bloque'!$I$4:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.7000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2999999999999997E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A1C2-49F5-AC21-E509E8AA06C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="315"/>
+        <c:overlap val="-40"/>
+        <c:axId val="1303176544"/>
+        <c:axId val="1303176128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1303176544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" sz="1000"/>
+                  <a:t>Nivel de optimización del compilador</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1303176128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1303176128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" sz="1000"/>
+                  <a:t>Tiempo [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.4870604828814917E-2"/>
+              <c:y val="0.45044474913791333"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1303176544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Tiempos Decoder por bloque [s]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tiempos de Ejecución por Bloque'!$G$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo Ejecución mayor [s]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tiempos de Ejecución por Bloque'!$F$36:$F$40</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-O0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-O1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-O2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-O3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-Os</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tiempos de Ejecución por Bloque'!$G$36:$G$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.6950000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4580000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4710000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.757E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1510000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3781-4339-8E5E-14BFB6F87EBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tiempos de Ejecución por Bloque'!$H$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo Ejecucion menor [s]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tiempos de Ejecución por Bloque'!$F$36:$F$40</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-O0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-O1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-O2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-O3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-Os</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tiempos de Ejecución por Bloque'!$H$36:$H$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.549E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6050000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5150000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6149999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3781-4339-8E5E-14BFB6F87EBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tiempos de Ejecución por Bloque'!$I$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo Promedio [s]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tiempos de Ejecución por Bloque'!$F$36:$F$40</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-O0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-O1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-O2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-O3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-Os</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tiempos de Ejecución por Bloque'!$I$36:$I$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.6580000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7290000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7390000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6159999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7920000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3781-4339-8E5E-14BFB6F87EBF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3279,6 +5001,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
   <cs:axisTitle>
@@ -4325,6 +6127,1125 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5002,6 +7923,351 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>311728</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>55417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>595747</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>13854</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD80B9C-7596-4EDC-B784-A2DAE7FB9E7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>394855</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>180108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>6927</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5985087-44CF-4E22-B066-12A30F81AE60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>94024</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>100752</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>807720</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>32097</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A284B9BB-ED5A-DEE6-B0CC-DDD26269DFF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7874044" y="481752"/>
+          <a:ext cx="3754076" cy="4693845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>787159</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>108370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ACE5590-2D2B-431E-8992-0A33CDE3D94C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11607559" y="489370"/>
+          <a:ext cx="3838181" cy="4666749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>481361</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>107524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>172529</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EA1AA55-8673-6A6E-BB38-0D781072825B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15439421" y="488524"/>
+          <a:ext cx="3862039" cy="4644625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>2747</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>160583</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5675DBD9-CD4A-F776-05E2-4B3936DC3C18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7795260" y="6416040"/>
+          <a:ext cx="4727147" cy="5494583"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>185496</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>206227</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>158796</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E153709-775A-B92C-F593-E96D6FD3BDE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12519660" y="6433896"/>
+          <a:ext cx="4473427" cy="5474940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>206254</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>175259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>396723</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>152964</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0644754D-A61E-6F08-CF7C-DFB50347A11D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16993114" y="6423659"/>
+          <a:ext cx="4457669" cy="5479345"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5306,8 +8572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25311B6-64EE-4CD5-86A5-B94FEBFE925C}">
   <dimension ref="F1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView topLeftCell="B43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6037,4 +9303,221 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111822D1-10E6-4B01-B2C1-18251BBD0864}">
+  <dimension ref="F1:I40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M69" sqref="M69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="6:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="6:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="6:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.7899999999999999E-4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="I4" s="4">
+        <v>8.7000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.73E-4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="I5" s="4">
+        <v>8.7000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.8200000000000001E-4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="I6" s="4">
+        <v>8.7000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.7699999999999999E-4</v>
+      </c>
+      <c r="H7" s="1">
+        <v>7.7999999999999999E-5</v>
+      </c>
+      <c r="I7" s="4">
+        <v>8.7999999999999998E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="6:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="H8" s="6">
+        <v>8.2999999999999998E-5</v>
+      </c>
+      <c r="I8" s="7">
+        <v>9.2999999999999997E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="6:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F34" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="27"/>
+    </row>
+    <row r="35" spans="6:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F35" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>4.6950000000000004E-3</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1.549E-3</v>
+      </c>
+      <c r="I36" s="18">
+        <v>2.6580000000000002E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="1">
+        <v>5.4580000000000002E-3</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1.6050000000000001E-3</v>
+      </c>
+      <c r="I37" s="18">
+        <v>2.7290000000000001E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="1">
+        <v>5.4710000000000002E-3</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1.6100000000000001E-3</v>
+      </c>
+      <c r="I38" s="18">
+        <v>2.7390000000000001E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="1">
+        <v>5.757E-3</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1.5150000000000001E-3</v>
+      </c>
+      <c r="I39" s="18">
+        <v>2.6159999999999998E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="6:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="6">
+        <v>6.1510000000000002E-3</v>
+      </c>
+      <c r="H40" s="6">
+        <v>1.6149999999999999E-3</v>
+      </c>
+      <c r="I40" s="14">
+        <v>2.7920000000000002E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F34:I34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>